--- a/rec_selectivity_MRIP_ALS.xlsx
+++ b/rec_selectivity_MRIP_ALS.xlsx
@@ -112,13 +112,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="1">
-        <v>7433.54345703125</v>
+        <v>342</v>
       </c>
       <c r="D2" s="2">
         <v>4579196</v>
       </c>
       <c r="E2" s="1">
-        <v>1.3073222504544901e-09</v>
+        <v>6.0146845837216745e-11</v>
       </c>
     </row>
     <row r="3">
@@ -129,13 +129,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="1">
-        <v>7433.54345703125</v>
+        <v>4379</v>
       </c>
       <c r="D3" s="2">
         <v>4579196</v>
       </c>
       <c r="E3" s="1">
-        <v>1.0650853116134229e-10</v>
+        <v>6.2742734618925766e-11</v>
       </c>
     </row>
     <row r="4">
@@ -146,13 +146,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="1">
-        <v>14867.0869140625</v>
+        <v>31103</v>
       </c>
       <c r="D4" s="2">
         <v>4579196</v>
       </c>
       <c r="E4" s="1">
-        <v>1.7697196486032851e-10</v>
+        <v>3.7023789589696321e-10</v>
       </c>
     </row>
     <row r="5">
@@ -163,13 +163,13 @@
         <v>2</v>
       </c>
       <c r="C5" s="1">
-        <v>74335.4375</v>
+        <v>136277</v>
       </c>
       <c r="D5" s="2">
         <v>4579196</v>
       </c>
       <c r="E5" s="1">
-        <v>7.813501512465848e-10</v>
+        <v>1.4324265107390488e-09</v>
       </c>
     </row>
     <row r="6">
@@ -180,13 +180,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="1">
-        <v>468313.28125</v>
+        <v>406799</v>
       </c>
       <c r="D6" s="2">
         <v>4579196</v>
       </c>
       <c r="E6" s="1">
-        <v>1.2576770735961418e-08</v>
+        <v>1.0924775750709159e-08</v>
       </c>
     </row>
     <row r="7">
@@ -197,13 +197,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="1">
-        <v>953833.6875</v>
+        <v>887078</v>
       </c>
       <c r="D7" s="2">
         <v>4579196</v>
       </c>
       <c r="E7" s="1">
-        <v>2.6652653417613692e-08</v>
+        <v>2.4787320640484722e-08</v>
       </c>
     </row>
     <row r="8">
@@ -214,13 +214,13 @@
         <v>2</v>
       </c>
       <c r="C8" s="1">
-        <v>1679980.875</v>
+        <v>1491171</v>
       </c>
       <c r="D8" s="2">
         <v>4579196</v>
       </c>
       <c r="E8" s="1">
-        <v>6.3419605567105464e-08</v>
+        <v>5.629199861800771e-08</v>
       </c>
     </row>
     <row r="9">
@@ -231,13 +231,13 @@
         <v>2</v>
       </c>
       <c r="C9" s="1">
-        <v>1494142.25</v>
+        <v>2011691</v>
       </c>
       <c r="D9" s="2">
         <v>4579196</v>
       </c>
       <c r="E9" s="1">
-        <v>4.192886748910496e-08</v>
+        <v>5.6452407193319232e-08</v>
       </c>
     </row>
     <row r="10">
@@ -248,13 +248,13 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>2074324.375</v>
+        <v>2246219</v>
       </c>
       <c r="D10" s="2">
         <v>4579196</v>
       </c>
       <c r="E10" s="1">
-        <v>4.3329144716608425e-08</v>
+        <v>4.6919733875938618e-08</v>
       </c>
     </row>
     <row r="11">
@@ -265,13 +265,13 @@
         <v>2</v>
       </c>
       <c r="C11" s="1">
-        <v>2243412</v>
+        <v>2133285</v>
       </c>
       <c r="D11" s="2">
         <v>4579196</v>
       </c>
       <c r="E11" s="1">
-        <v>2.6982705847444777e-08</v>
+        <v>2.5658149382934425e-08</v>
       </c>
     </row>
     <row r="12">
@@ -282,13 +282,13 @@
         <v>2</v>
       </c>
       <c r="C12" s="1">
-        <v>2100091.75</v>
+        <v>1754417</v>
       </c>
       <c r="D12" s="2">
         <v>4579196</v>
       </c>
       <c r="E12" s="1">
-        <v>5.1650683730031233e-08</v>
+        <v>4.3148990158670131e-08</v>
       </c>
     </row>
     <row r="13">
@@ -299,13 +299,13 @@
         <v>2</v>
       </c>
       <c r="C13" s="1">
-        <v>1856717.5</v>
+        <v>1272494</v>
       </c>
       <c r="D13" s="2">
         <v>4579196</v>
       </c>
       <c r="E13" s="1">
-        <v>5.0111047755763138e-08</v>
+        <v>3.434340811736547e-08</v>
       </c>
     </row>
     <row r="14">
@@ -316,13 +316,13 @@
         <v>2</v>
       </c>
       <c r="C14" s="1">
-        <v>574984.5625</v>
+        <v>825037</v>
       </c>
       <c r="D14" s="2">
         <v>4579196</v>
       </c>
       <c r="E14" s="1">
-        <v>2.7207260444583881e-08</v>
+        <v>3.903930334558936e-08</v>
       </c>
     </row>
     <row r="15">
@@ -333,13 +333,13 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>252154.859375</v>
+        <v>484845</v>
       </c>
       <c r="D15" s="2">
         <v>4579196</v>
       </c>
       <c r="E15" s="1">
-        <v>1.2461481624370663e-08</v>
+        <v>2.3961018058571426e-08</v>
       </c>
     </row>
     <row r="16">
@@ -350,13 +350,13 @@
         <v>2</v>
       </c>
       <c r="C16" s="1">
-        <v>147704.5625</v>
+        <v>260737</v>
       </c>
       <c r="D16" s="2">
         <v>4579196</v>
       </c>
       <c r="E16" s="1">
-        <v>8.907612425446132e-09</v>
+        <v>1.5724255675308996e-08</v>
       </c>
     </row>
     <row r="17">
@@ -367,13 +367,13 @@
         <v>2</v>
       </c>
       <c r="C17" s="1">
-        <v>78661.1640625</v>
+        <v>129410</v>
       </c>
       <c r="D17" s="2">
         <v>4579196</v>
       </c>
       <c r="E17" s="1">
-        <v>8.8610940807143379e-09</v>
+        <v>1.457789444714308e-08</v>
       </c>
     </row>
     <row r="18">
@@ -384,13 +384,13 @@
         <v>2</v>
       </c>
       <c r="C18" s="1">
-        <v>37487.61328125</v>
+        <v>59086</v>
       </c>
       <c r="D18" s="2">
         <v>4579196</v>
       </c>
       <c r="E18" s="1">
-        <v>3.018745697858094e-09</v>
+        <v>4.7579877815451255e-09</v>
       </c>
     </row>
     <row r="19">
@@ -401,13 +401,13 @@
         <v>2</v>
       </c>
       <c r="C19" s="1">
-        <v>19085.994140625</v>
+        <v>25520</v>
       </c>
       <c r="D19" s="2">
         <v>4579196</v>
       </c>
       <c r="E19" s="1">
-        <v>2.1639119385241656e-09</v>
+        <v>2.8933799800512361e-09</v>
       </c>
     </row>
     <row r="20">
@@ -418,13 +418,13 @@
         <v>2</v>
       </c>
       <c r="C20" s="1">
-        <v>63889.45703125</v>
+        <v>10331</v>
       </c>
       <c r="D20" s="2">
         <v>4579196</v>
       </c>
       <c r="E20" s="1">
-        <v>7.0306240829154376e-09</v>
+        <v>1.1368601615657781e-09</v>
       </c>
     </row>
     <row r="21">
@@ -435,13 +435,13 @@
         <v>2</v>
       </c>
       <c r="C21" s="1">
-        <v>5349.48974609375</v>
+        <v>3992</v>
       </c>
       <c r="D21" s="2">
         <v>4579196</v>
       </c>
       <c r="E21" s="1">
-        <v>1.2901165691303618e-09</v>
+        <v>9.6273577998573501e-10</v>
       </c>
     </row>
     <row r="22">
@@ -452,13 +452,13 @@
         <v>2</v>
       </c>
       <c r="C22" s="1">
-        <v>10921.9189453125</v>
+        <v>1378</v>
       </c>
       <c r="D22" s="2">
         <v>4579196</v>
       </c>
       <c r="E22" s="1">
-        <v>2.6094728600156714e-09</v>
+        <v>3.2923275217200398e-10</v>
       </c>
     </row>
     <row r="23">
@@ -469,13 +469,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>497</v>
       </c>
       <c r="D23" s="2">
         <v>4579196</v>
       </c>
       <c r="E23" s="1">
-        <v>0</v>
+        <v>2.5857152530228689e-10</v>
       </c>
     </row>
     <row r="24">
@@ -486,13 +486,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="D24" s="2">
         <v>4579196</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>8.8380670837384656e-11</v>
       </c>
     </row>
     <row r="25">
@@ -503,13 +503,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="1">
-        <v>3769.558349609375</v>
+        <v>46</v>
       </c>
       <c r="D25" s="2">
         <v>4579196</v>
       </c>
       <c r="E25" s="1">
-        <v>5.6555178318262733e-09</v>
+        <v>6.9014405301714987e-11</v>
       </c>
     </row>
     <row r="26">
@@ -520,13 +520,13 @@
         <v>2</v>
       </c>
       <c r="C26" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D26" s="2">
         <v>4579196</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>4.9686810221771793e-11</v>
       </c>
     </row>
     <row r="27">
@@ -537,13 +537,13 @@
         <v>2</v>
       </c>
       <c r="C27" s="1">
-        <v>7433.54345703125</v>
+        <v>11</v>
       </c>
       <c r="D27" s="2">
         <v>4579196</v>
       </c>
       <c r="E27" s="1">
-        <v>4.2617202211658878e-08</v>
+        <v>6.3064033162252287e-11</v>
       </c>
     </row>
     <row r="28">
@@ -554,13 +554,13 @@
         <v>3</v>
       </c>
       <c r="C28" s="1">
-        <v>5725.33447265625</v>
+        <v>314</v>
       </c>
       <c r="D28" s="2">
         <v>4464575</v>
       </c>
       <c r="E28" s="1">
-        <v>1.0327536603682574e-09</v>
+        <v>5.6640296619558939e-11</v>
       </c>
     </row>
     <row r="29">
@@ -571,13 +571,13 @@
         <v>3</v>
       </c>
       <c r="C29" s="1">
-        <v>28626.671875</v>
+        <v>3530</v>
       </c>
       <c r="D29" s="2">
         <v>4464575</v>
       </c>
       <c r="E29" s="1">
-        <v>4.2069611683182018e-10</v>
+        <v>5.1876700851716251e-11</v>
       </c>
     </row>
     <row r="30">
@@ -588,13 +588,13 @@
         <v>3</v>
       </c>
       <c r="C30" s="1">
-        <v>74429.34375</v>
+        <v>21768</v>
       </c>
       <c r="D30" s="2">
         <v>4464575</v>
       </c>
       <c r="E30" s="1">
-        <v>9.0872381841577976e-10</v>
+        <v>2.6577018363838079e-10</v>
       </c>
     </row>
     <row r="31">
@@ -605,13 +605,13 @@
         <v>3</v>
       </c>
       <c r="C31" s="1">
-        <v>80154.6796875</v>
+        <v>88541</v>
       </c>
       <c r="D31" s="2">
         <v>4464575</v>
       </c>
       <c r="E31" s="1">
-        <v>8.6414730926520633e-10</v>
+        <v>9.5456020865469782e-10</v>
       </c>
     </row>
     <row r="32">
@@ -622,13 +622,13 @@
         <v>3</v>
       </c>
       <c r="C32" s="1">
-        <v>131682.6875</v>
+        <v>256630</v>
       </c>
       <c r="D32" s="2">
         <v>4464575</v>
       </c>
       <c r="E32" s="1">
-        <v>3.6271912140506402e-09</v>
+        <v>7.0688570552590591e-09</v>
       </c>
     </row>
     <row r="33">
@@ -639,13 +639,13 @@
         <v>3</v>
       </c>
       <c r="C33" s="1">
-        <v>429400.09375</v>
+        <v>564140</v>
       </c>
       <c r="D33" s="2">
         <v>4464575</v>
       </c>
       <c r="E33" s="1">
-        <v>1.2306626828717526e-08</v>
+        <v>1.6168279159956001e-08</v>
       </c>
     </row>
     <row r="34">
@@ -656,13 +656,13 @@
         <v>3</v>
       </c>
       <c r="C34" s="1">
-        <v>777762.8125</v>
+        <v>983374</v>
       </c>
       <c r="D34" s="2">
         <v>4464575</v>
       </c>
       <c r="E34" s="1">
-        <v>3.0114488680510476e-08</v>
+        <v>3.8075626207501045e-08</v>
       </c>
     </row>
     <row r="35">
@@ -673,13 +673,13 @@
         <v>3</v>
       </c>
       <c r="C35" s="1">
-        <v>1598170.25</v>
+        <v>1407767</v>
       </c>
       <c r="D35" s="2">
         <v>4464575</v>
       </c>
       <c r="E35" s="1">
-        <v>4.5999524189710428e-08</v>
+        <v>4.0519221755630497e-08</v>
       </c>
     </row>
     <row r="36">
@@ -690,13 +690,13 @@
         <v>3</v>
       </c>
       <c r="C36" s="1">
-        <v>1692490.125</v>
+        <v>1705030</v>
       </c>
       <c r="D36" s="2">
         <v>4464575</v>
       </c>
       <c r="E36" s="1">
-        <v>3.6260910718510786e-08</v>
+        <v>3.6529574032329037e-08</v>
       </c>
     </row>
     <row r="37">
@@ -707,13 +707,13 @@
         <v>3</v>
       </c>
       <c r="C37" s="1">
-        <v>2028374.625</v>
+        <v>1785342</v>
       </c>
       <c r="D37" s="2">
         <v>4464575</v>
       </c>
       <c r="E37" s="1">
-        <v>2.502267548720738e-08</v>
+        <v>2.2024547519094995e-08</v>
       </c>
     </row>
     <row r="38">
@@ -724,13 +724,13 @@
         <v>3</v>
       </c>
       <c r="C38" s="1">
-        <v>1891822.75</v>
+        <v>1651694</v>
       </c>
       <c r="D38" s="2">
         <v>4464575</v>
       </c>
       <c r="E38" s="1">
-        <v>4.7722956253437587e-08</v>
+        <v>4.1665490613240763e-08</v>
       </c>
     </row>
     <row r="39">
@@ -741,13 +741,13 @@
         <v>3</v>
       </c>
       <c r="C39" s="1">
-        <v>1737158.625</v>
+        <v>1361540</v>
       </c>
       <c r="D39" s="2">
         <v>4464575</v>
       </c>
       <c r="E39" s="1">
-        <v>4.8087947845942836e-08</v>
+        <v>3.7690089271791294e-08</v>
       </c>
     </row>
     <row r="40">
@@ -758,13 +758,13 @@
         <v>3</v>
       </c>
       <c r="C40" s="1">
-        <v>823115.0625</v>
+        <v>1019451</v>
       </c>
       <c r="D40" s="2">
         <v>4464575</v>
       </c>
       <c r="E40" s="1">
-        <v>3.9948300667447256e-08</v>
+        <v>4.9477083763349583e-08</v>
       </c>
     </row>
     <row r="41">
@@ -775,13 +775,13 @@
         <v>3</v>
       </c>
       <c r="C41" s="1">
-        <v>392887.3125</v>
+        <v>696670</v>
       </c>
       <c r="D41" s="2">
         <v>4464575</v>
       </c>
       <c r="E41" s="1">
-        <v>1.9914960347477972e-08</v>
+        <v>3.531332026796008e-08</v>
       </c>
     </row>
     <row r="42">
@@ -792,13 +792,13 @@
         <v>3</v>
       </c>
       <c r="C42" s="1">
-        <v>233820.875</v>
+        <v>440769</v>
       </c>
       <c r="D42" s="2">
         <v>4464575</v>
       </c>
       <c r="E42" s="1">
-        <v>1.4463047648405336e-08</v>
+        <v>2.7263874713412406e-08</v>
       </c>
     </row>
     <row r="43">
@@ -809,13 +809,13 @@
         <v>3</v>
       </c>
       <c r="C43" s="1">
-        <v>173438.96875</v>
+        <v>260494</v>
       </c>
       <c r="D43" s="2">
         <v>4464575</v>
       </c>
       <c r="E43" s="1">
-        <v>2.0039310655306508e-08</v>
+        <v>3.0097734082801253e-08</v>
       </c>
     </row>
     <row r="44">
@@ -826,13 +826,13 @@
         <v>3</v>
       </c>
       <c r="C44" s="1">
-        <v>124164.4921875</v>
+        <v>143684</v>
       </c>
       <c r="D44" s="2">
         <v>4464575</v>
       </c>
       <c r="E44" s="1">
-        <v>1.0255226889910318e-08</v>
+        <v>1.1867419047462135e-08</v>
       </c>
     </row>
     <row r="45">
@@ -843,13 +843,13 @@
         <v>3</v>
       </c>
       <c r="C45" s="1">
-        <v>110967.953125</v>
+        <v>73712</v>
       </c>
       <c r="D45" s="2">
         <v>4464575</v>
       </c>
       <c r="E45" s="1">
-        <v>1.2904211921238584e-08</v>
+        <v>8.5718019349201313e-09</v>
       </c>
     </row>
     <row r="46">
@@ -860,13 +860,13 @@
         <v>3</v>
       </c>
       <c r="C46" s="1">
-        <v>67026.6484375</v>
+        <v>36465</v>
       </c>
       <c r="D46" s="2">
         <v>4464575</v>
       </c>
       <c r="E46" s="1">
-        <v>7.5652151210192642e-09</v>
+        <v>4.1157597330254703e-09</v>
       </c>
     </row>
     <row r="47">
@@ -877,13 +877,13 @@
         <v>3</v>
       </c>
       <c r="C47" s="1">
-        <v>65466.8984375</v>
+        <v>17035</v>
       </c>
       <c r="D47" s="2">
         <v>4464575</v>
       </c>
       <c r="E47" s="1">
-        <v>1.6193752117033e-08</v>
+        <v>4.213740911751529e-09</v>
       </c>
     </row>
     <row r="48">
@@ -894,13 +894,13 @@
         <v>3</v>
       </c>
       <c r="C48" s="1">
-        <v>32233.21875</v>
+        <v>7564</v>
       </c>
       <c r="D48" s="2">
         <v>4464575</v>
       </c>
       <c r="E48" s="1">
-        <v>7.8989002005869224e-09</v>
+        <v>1.8535932788665832e-09</v>
       </c>
     </row>
     <row r="49">
@@ -911,13 +911,13 @@
         <v>3</v>
       </c>
       <c r="C49" s="1">
-        <v>24410.466796875</v>
+        <v>3265</v>
       </c>
       <c r="D49" s="2">
         <v>4464575</v>
       </c>
       <c r="E49" s="1">
-        <v>1.3025952760870041e-08</v>
+        <v>1.7422745468564926e-09</v>
       </c>
     </row>
     <row r="50">
@@ -928,13 +928,13 @@
         <v>3</v>
       </c>
       <c r="C50" s="1">
-        <v>1891.8192138671875</v>
+        <v>1327</v>
       </c>
       <c r="D50" s="2">
         <v>4464575</v>
       </c>
       <c r="E50" s="1">
-        <v>9.9705155243157151e-10</v>
+        <v>6.9937305946510264e-10</v>
       </c>
     </row>
     <row r="51">
@@ -945,13 +945,13 @@
         <v>3</v>
       </c>
       <c r="C51" s="1">
-        <v>5725.33447265625</v>
+        <v>551</v>
       </c>
       <c r="D51" s="2">
         <v>4464575</v>
       </c>
       <c r="E51" s="1">
-        <v>8.8103240258874393e-09</v>
+        <v>8.4789608667534822e-10</v>
       </c>
     </row>
     <row r="52">
@@ -962,13 +962,13 @@
         <v>3</v>
       </c>
       <c r="C52" s="1">
-        <v>24.823677062988281</v>
+        <v>192</v>
       </c>
       <c r="D52" s="2">
         <v>4464575</v>
       </c>
       <c r="E52" s="1">
-        <v>9.7313476721261338e-11</v>
+        <v>7.5267603261153226e-10</v>
       </c>
     </row>
     <row r="53">
@@ -979,13 +979,13 @@
         <v>3</v>
       </c>
       <c r="C53" s="1">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="D53" s="2">
         <v>4464575</v>
       </c>
       <c r="E53" s="1">
-        <v>0</v>
+        <v>7.2327471789535025e-10</v>
       </c>
     </row>
     <row r="54">
@@ -996,13 +996,13 @@
         <v>4</v>
       </c>
       <c r="C54" s="1">
-        <v>104063.369140625</v>
+        <v>70229</v>
       </c>
       <c r="D54" s="2">
         <v>1758239</v>
       </c>
       <c r="E54" s="1">
-        <v>4.7664602931263289e-08</v>
+        <v>3.2167296382112909e-08</v>
       </c>
     </row>
     <row r="55">
@@ -1013,13 +1013,13 @@
         <v>4</v>
       </c>
       <c r="C55" s="1">
-        <v>119445.0546875</v>
+        <v>123996</v>
       </c>
       <c r="D55" s="2">
         <v>1758239</v>
       </c>
       <c r="E55" s="1">
-        <v>4.4572603385972798e-09</v>
+        <v>4.6270853815144619e-09</v>
       </c>
     </row>
     <row r="56">
@@ -1030,13 +1030,13 @@
         <v>4</v>
       </c>
       <c r="C56" s="1">
-        <v>132444.28125</v>
+        <v>221687</v>
       </c>
       <c r="D56" s="2">
         <v>1758239</v>
       </c>
       <c r="E56" s="1">
-        <v>4.1060395084002721e-09</v>
+        <v>6.8727437074755926e-09</v>
       </c>
     </row>
     <row r="57">
@@ -1047,13 +1047,13 @@
         <v>4</v>
       </c>
       <c r="C57" s="1">
-        <v>177334.203125</v>
+        <v>319840</v>
       </c>
       <c r="D57" s="2">
         <v>1758239</v>
       </c>
       <c r="E57" s="1">
-        <v>4.8546020536832657e-09</v>
+        <v>8.7557614492084213e-09</v>
       </c>
     </row>
     <row r="58">
@@ -1064,13 +1064,13 @@
         <v>4</v>
       </c>
       <c r="C58" s="1">
-        <v>444634.375</v>
+        <v>390605</v>
       </c>
       <c r="D58" s="2">
         <v>1758239</v>
       </c>
       <c r="E58" s="1">
-        <v>3.1099041564175423e-08</v>
+        <v>2.7320067985669994e-08</v>
       </c>
     </row>
     <row r="59">
@@ -1081,13 +1081,13 @@
         <v>4</v>
       </c>
       <c r="C59" s="1">
-        <v>747364.1875</v>
+        <v>414283</v>
       </c>
       <c r="D59" s="2">
         <v>1758239</v>
       </c>
       <c r="E59" s="1">
-        <v>5.4389040826663404e-08</v>
+        <v>3.0149230667575466e-08</v>
       </c>
     </row>
     <row r="60">
@@ -1098,13 +1098,13 @@
         <v>4</v>
       </c>
       <c r="C60" s="1">
-        <v>359514.59375</v>
+        <v>393819</v>
       </c>
       <c r="D60" s="2">
         <v>1758239</v>
       </c>
       <c r="E60" s="1">
-        <v>3.534655235171158e-08</v>
+        <v>3.8719274897403011e-08</v>
       </c>
     </row>
     <row r="61">
@@ -1115,13 +1115,13 @@
         <v>4</v>
       </c>
       <c r="C61" s="1">
-        <v>232173</v>
+        <v>338393</v>
       </c>
       <c r="D61" s="2">
         <v>1758239</v>
       </c>
       <c r="E61" s="1">
-        <v>1.6968531468819492e-08</v>
+        <v>2.4731695802415743e-08</v>
       </c>
     </row>
     <row r="62">
@@ -1132,13 +1132,13 @@
         <v>4</v>
       </c>
       <c r="C62" s="1">
-        <v>243916.203125</v>
+        <v>269057</v>
       </c>
       <c r="D62" s="2">
         <v>1758239</v>
       </c>
       <c r="E62" s="1">
-        <v>1.3269526810688603e-08</v>
+        <v>1.4637236311898505e-08</v>
       </c>
     </row>
     <row r="63">
@@ -1149,13 +1149,13 @@
         <v>4</v>
       </c>
       <c r="C63" s="1">
-        <v>186992.125</v>
+        <v>198550</v>
       </c>
       <c r="D63" s="2">
         <v>1758239</v>
       </c>
       <c r="E63" s="1">
-        <v>5.8574838313063537e-09</v>
+        <v>6.2195315564395059e-09</v>
       </c>
     </row>
     <row r="64">
@@ -1166,13 +1166,13 @@
         <v>4</v>
       </c>
       <c r="C64" s="1">
-        <v>91803.0390625</v>
+        <v>137432</v>
       </c>
       <c r="D64" s="2">
         <v>1758239</v>
       </c>
       <c r="E64" s="1">
-        <v>5.8803903968396298e-09</v>
+        <v>8.8031271161526092e-09</v>
       </c>
     </row>
     <row r="65">
@@ -1183,13 +1183,13 @@
         <v>4</v>
       </c>
       <c r="C65" s="1">
-        <v>90265.671875</v>
+        <v>90729</v>
       </c>
       <c r="D65" s="2">
         <v>1758239</v>
       </c>
       <c r="E65" s="1">
-        <v>6.3448535314591936e-09</v>
+        <v>6.3774212577527578e-09</v>
       </c>
     </row>
     <row r="66">
@@ -1200,13 +1200,13 @@
         <v>4</v>
       </c>
       <c r="C66" s="1">
-        <v>71203.5078125</v>
+        <v>57075</v>
       </c>
       <c r="D66" s="2">
         <v>1758239</v>
       </c>
       <c r="E66" s="1">
-        <v>8.7748830424061453e-09</v>
+        <v>7.0337331514735979e-09</v>
       </c>
     </row>
     <row r="67">
@@ -1217,13 +1217,13 @@
         <v>4</v>
       </c>
       <c r="C67" s="1">
-        <v>64552.69140625</v>
+        <v>34373</v>
       </c>
       <c r="D67" s="2">
         <v>1758239</v>
       </c>
       <c r="E67" s="1">
-        <v>8.3086035829182947e-09</v>
+        <v>4.4241628138763645e-09</v>
       </c>
     </row>
     <row r="68">
@@ -1234,13 +1234,13 @@
         <v>4</v>
       </c>
       <c r="C68" s="1">
-        <v>19302.041015625</v>
+        <v>19816</v>
       </c>
       <c r="D68" s="2">
         <v>1758239</v>
       </c>
       <c r="E68" s="1">
-        <v>3.0316702481769653e-09</v>
+        <v>3.1123952304312752e-09</v>
       </c>
     </row>
     <row r="69">
@@ -1251,13 +1251,13 @@
         <v>4</v>
       </c>
       <c r="C69" s="1">
-        <v>7304.47021484375</v>
+        <v>10990</v>
       </c>
       <c r="D69" s="2">
         <v>1758239</v>
       </c>
       <c r="E69" s="1">
-        <v>2.143023980494263e-09</v>
+        <v>3.2243039349566516e-09</v>
       </c>
     </row>
     <row r="70">
@@ -1268,13 +1268,13 @@
         <v>4</v>
       </c>
       <c r="C70" s="1">
-        <v>10003.0126953125</v>
+        <v>6035</v>
       </c>
       <c r="D70" s="2">
         <v>1758239</v>
       </c>
       <c r="E70" s="1">
-        <v>2.0978812020899795e-09</v>
+        <v>1.2656899972540714e-09</v>
       </c>
     </row>
     <row r="71">
@@ -1285,13 +1285,13 @@
         <v>4</v>
       </c>
       <c r="C71" s="1">
-        <v>795.2666015625</v>
+        <v>3169</v>
       </c>
       <c r="D71" s="2">
         <v>1758239</v>
       </c>
       <c r="E71" s="1">
-        <v>2.3482746303038482e-10</v>
+        <v>9.3574681336860976e-10</v>
       </c>
     </row>
     <row r="72">
@@ -1302,13 +1302,13 @@
         <v>4</v>
       </c>
       <c r="C72" s="1">
-        <v>8.9516086578369141</v>
+        <v>1633</v>
       </c>
       <c r="D72" s="2">
         <v>1758239</v>
       </c>
       <c r="E72" s="1">
-        <v>2.5655300366772549e-12</v>
+        <v>4.6801762465520369e-10</v>
       </c>
     </row>
     <row r="73">
@@ -1319,13 +1319,13 @@
         <v>4</v>
       </c>
       <c r="C73" s="1">
-        <v>174.84541320800781</v>
+        <v>829</v>
       </c>
       <c r="D73" s="2">
         <v>1758239</v>
       </c>
       <c r="E73" s="1">
-        <v>1.0982018072702715e-10</v>
+        <v>5.2069382139308118e-10</v>
       </c>
     </row>
     <row r="74">
@@ -1336,13 +1336,13 @@
         <v>4</v>
       </c>
       <c r="C74" s="1">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="D74" s="2">
         <v>1758239</v>
       </c>
       <c r="E74" s="1">
-        <v>0</v>
+        <v>2.5512264523186445e-10</v>
       </c>
     </row>
     <row r="75">
@@ -1353,13 +1353,13 @@
         <v>4</v>
       </c>
       <c r="C75" s="1">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="D75" s="2">
         <v>1758239</v>
       </c>
       <c r="E75" s="1">
-        <v>0</v>
+        <v>2.4389792963042112e-10</v>
       </c>
     </row>
     <row r="76">
@@ -1370,13 +1370,13 @@
         <v>4</v>
       </c>
       <c r="C76" s="1">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="D76" s="2">
         <v>1758239</v>
       </c>
       <c r="E76" s="1">
-        <v>0</v>
+        <v>1.1776679631481102e-10</v>
       </c>
     </row>
     <row r="77">
@@ -1387,13 +1387,13 @@
         <v>4</v>
       </c>
       <c r="C77" s="1">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="D77" s="2">
         <v>1758239</v>
       </c>
       <c r="E77" s="1">
-        <v>0</v>
+        <v>1.5239048911652731e-10</v>
       </c>
     </row>
     <row r="78">
@@ -1404,13 +1404,13 @@
         <v>4</v>
       </c>
       <c r="C78" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D78" s="2">
         <v>1758239</v>
       </c>
       <c r="E78" s="1">
-        <v>0</v>
+        <v>1.4931393621520073e-10</v>
       </c>
     </row>
     <row r="79">
@@ -1421,13 +1421,13 @@
         <v>4</v>
       </c>
       <c r="C79" s="1">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D79" s="2">
         <v>1758239</v>
       </c>
       <c r="E79" s="1">
-        <v>0</v>
+        <v>3.2849067910234453e-10</v>
       </c>
     </row>
   </sheetData>
